--- a/hasil_descriptive_statistics3.xlsx
+++ b/hasil_descriptive_statistics3.xlsx
@@ -441,77 +441,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>default_profile_image</t>
+          <t>favourites_count</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>favourites_count</t>
+          <t>followers_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>followers_count</t>
+          <t>friends_count</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>friends_count</t>
+          <t>statuses_count</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>geo_enabled</t>
+          <t>verified</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>account_age_days</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>statuses_count</t>
+          <t>ratio_statuses_count_per_age</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>verified</t>
+          <t>ratio_favorites_per_age</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>average_tweets_per_day</t>
+          <t>ratio_friends_per_followers</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>account_age_days</t>
+          <t>word_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>char_count</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>reputation</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>description_word_count</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>description_character_count</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>avg_word</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Entropy</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>reputation</t>
         </is>
       </c>
     </row>
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="C2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="E2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="F2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="G2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="H2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="I2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="J2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="K2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="N2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="O2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="P2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
-        <v>37438</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.98942251188632</v>
+        <v>41.25</v>
       </c>
       <c r="C3" t="n">
-        <v>1.490464234200545</v>
+        <v>2.645898292352835</v>
       </c>
       <c r="D3" t="n">
-        <v>1.389870355059004</v>
+        <v>0.4727130070254212</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3044272821979024</v>
+        <v>0.5268779450855369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1023684955531164</v>
+        <v>1.676412049916541</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4561408194882206</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1.221535968950323e+17</v>
+        <v>56.16904284547412</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7602478781696914</v>
+        <v>6.638758527608017</v>
       </c>
       <c r="J3" t="n">
-        <v>20.16934665313318</v>
+        <v>3.764408148086102</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5430550751337371</v>
+        <v>2.303236456121974</v>
       </c>
       <c r="L3" t="n">
-        <v>54.31289950186447</v>
+        <v>10.00833333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>10.07791548693841</v>
+        <v>66.40916666666666</v>
       </c>
       <c r="N3" t="n">
-        <v>58.0640792777392</v>
+        <v>62.59964250534389</v>
       </c>
       <c r="O3" t="n">
-        <v>3.035692316399471</v>
+        <v>9.968333333333334</v>
       </c>
       <c r="P3" t="n">
-        <v>77.9767616241393</v>
+        <v>57.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>47.58288857027804</v>
+        <v>7.285481829681913</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.35479422609046</v>
+        <v>49.24894633996072</v>
       </c>
       <c r="C4" t="n">
-        <v>12.11729597340833</v>
+        <v>6.623489792651158</v>
       </c>
       <c r="D4" t="n">
-        <v>3.832648144585686</v>
+        <v>3.578094833315523</v>
       </c>
       <c r="E4" t="n">
-        <v>2.031239370779316</v>
+        <v>4.641118873659746</v>
       </c>
       <c r="F4" t="n">
-        <v>1.140790191463454</v>
+        <v>5.012686316134736</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4980793097361974</v>
+        <v>40.1411881327581</v>
       </c>
       <c r="H4" t="n">
-        <v>3.004313089004162e+17</v>
+        <v>22.74131243752178</v>
       </c>
       <c r="I4" t="n">
-        <v>2.429002796218729</v>
+        <v>18.69330619702975</v>
       </c>
       <c r="J4" t="n">
-        <v>40.12698755215658</v>
+        <v>10.8666680524384</v>
       </c>
       <c r="K4" t="n">
-        <v>1.936883389835873</v>
+        <v>8.128659032914227</v>
       </c>
       <c r="L4" t="n">
-        <v>21.68333412413392</v>
+        <v>8.263282161604479</v>
       </c>
       <c r="M4" t="n">
-        <v>8.211734649780121</v>
+        <v>54.11512840146593</v>
       </c>
       <c r="N4" t="n">
-        <v>46.63479672019343</v>
+        <v>34.78819807735387</v>
       </c>
       <c r="O4" t="n">
-        <v>3.402169517062127</v>
+        <v>8.100329829190514</v>
       </c>
       <c r="P4" t="n">
-        <v>19.09479026603362</v>
+        <v>46.50513957265613</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.5083894361332</v>
+        <v>7.863462881331645</v>
       </c>
     </row>
     <row r="5">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -745,49 +745,49 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.09896074490208306</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04089827063583253</v>
+        <v>3.030723642573262e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>2.877308136510317e-05</v>
+        <v>0.003213794462846393</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0008519338899301414</v>
+        <v>0.1058540656545585</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99573057.5</v>
+        <v>40.79416351080419</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04820683211215371</v>
+        <v>0.5115878262688949</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.1413919802790587</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03900540165713858</v>
+        <v>0.0008106616185106069</v>
       </c>
       <c r="L6" t="n">
-        <v>39.21390374331551</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
+        <v>15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>32.103019585071</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.646090534979423</v>
-      </c>
-      <c r="P6" t="n">
-        <v>66.33463751679962</v>
-      </c>
       <c r="Q6" t="n">
-        <v>13.41020158931061</v>
+        <v>4.597463468431211</v>
       </c>
     </row>
     <row r="7">
@@ -800,49 +800,49 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.5506740571630451</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2334138871094752</v>
+        <v>0.0003056191908477239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003000621342360759</v>
+        <v>0.02817426479095338</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006815471119441131</v>
+        <v>0.3135680788490581</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>399147423.5</v>
+        <v>60.31410113611049</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1518447568644004</v>
+        <v>1.418647408102463</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.6492877101774561</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1172526013450954</v>
+        <v>0.6416122010706158</v>
       </c>
       <c r="L7" t="n">
-        <v>58.52406417112299</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
+        <v>57</v>
+      </c>
+      <c r="N7" t="n">
+        <v>60.91574834735303</v>
+      </c>
+      <c r="O7" t="n">
         <v>8</v>
       </c>
-      <c r="N7" t="n">
-        <v>50</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.592592592592593</v>
-      </c>
       <c r="P7" t="n">
-        <v>83.26185578010734</v>
+        <v>49</v>
       </c>
       <c r="Q7" t="n">
-        <v>45.30017587581749</v>
+        <v>6.854838709677418</v>
       </c>
     </row>
     <row r="8">
@@ -855,49 +855,49 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.01133197549467</v>
       </c>
       <c r="D8" t="n">
-        <v>1.00313741705955</v>
+        <v>0.008360467648298528</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006938628571194629</v>
+        <v>0.09188774001688313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0205615395596653</v>
+        <v>1.200143072887688</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2453825953.25</v>
+        <v>75.63488527511696</v>
       </c>
       <c r="I8" t="n">
-        <v>0.618842242352746</v>
+        <v>5.277241459133752</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.584223911879516</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4355997179003274</v>
+        <v>2.114971823770492</v>
       </c>
       <c r="L8" t="n">
-        <v>72.83422459893048</v>
+        <v>16</v>
       </c>
       <c r="M8" t="n">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N8" t="n">
-        <v>101</v>
+        <v>99.91899950255549</v>
       </c>
       <c r="O8" t="n">
-        <v>3.456790123456789</v>
+        <v>16</v>
       </c>
       <c r="P8" t="n">
-        <v>93.74668190057267</v>
+        <v>99</v>
       </c>
       <c r="Q8" t="n">
-        <v>85.68834664297687</v>
+        <v>9.039938556067588</v>
       </c>
     </row>
     <row r="9">
@@ -919,37 +919,37 @@
         <v>100</v>
       </c>
       <c r="F9" t="n">
+        <v>99.99999999999999</v>
+      </c>
+      <c r="G9" t="n">
         <v>100</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.120973992754582e+18</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
+        <v>337.2018225676762</v>
+      </c>
+      <c r="J9" t="n">
+        <v>185.8958525345622</v>
+      </c>
+      <c r="K9" t="n">
+        <v>151.7142857142857</v>
+      </c>
+      <c r="L9" t="n">
+        <v>68</v>
+      </c>
+      <c r="M9" t="n">
+        <v>162</v>
+      </c>
+      <c r="N9" t="n">
         <v>100</v>
       </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M9" t="n">
-        <v>52</v>
-      </c>
-      <c r="N9" t="n">
-        <v>169</v>
-      </c>
       <c r="O9" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="P9" t="n">
-        <v>99.99999999999999</v>
+        <v>147</v>
       </c>
       <c r="Q9" t="n">
         <v>100</v>

--- a/hasil_descriptive_statistics3.xlsx
+++ b/hasil_descriptive_statistics3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,60 +456,65 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>statuses_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>verified</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>account_age_days</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ratio_statuses_count_per_age</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ratio_favorites_per_age</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ratio_friends_per_followers</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>word_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>char_count</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>reputation</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>description_word_count</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>description_character_count</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>avg_word</t>
         </is>
@@ -569,6 +574,9 @@
       <c r="Q2" t="n">
         <v>1200</v>
       </c>
+      <c r="R2" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -577,52 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.25</v>
+        <v>39.41666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>2.645898292352835</v>
+        <v>2.972588272546273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4727130070254212</v>
+        <v>0.8132173887041124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5268779450855369</v>
+        <v>0.2899707726986188</v>
       </c>
       <c r="F3" t="n">
-        <v>1.676412049916541</v>
+        <v>1.17659042009189e+17</v>
       </c>
       <c r="G3" t="n">
-        <v>20.16666666666667</v>
+        <v>0.8950400325647899</v>
       </c>
       <c r="H3" t="n">
-        <v>56.16904284547412</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>6.638758527608017</v>
+        <v>55.11941470378299</v>
       </c>
       <c r="J3" t="n">
-        <v>3.764408148086102</v>
+        <v>7.888849631600142</v>
       </c>
       <c r="K3" t="n">
-        <v>2.303236456121974</v>
+        <v>3.631691511453875</v>
       </c>
       <c r="L3" t="n">
-        <v>10.00833333333333</v>
+        <v>2.709531735934661</v>
       </c>
       <c r="M3" t="n">
-        <v>66.40916666666666</v>
+        <v>9.783333333333333</v>
       </c>
       <c r="N3" t="n">
-        <v>62.59964250534389</v>
+        <v>64.5325</v>
       </c>
       <c r="O3" t="n">
-        <v>9.968333333333334</v>
+        <v>63.31464341602851</v>
       </c>
       <c r="P3" t="n">
-        <v>57.26</v>
+        <v>9.484999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.285481829681913</v>
+        <v>55.565</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.392518582122441</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +643,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.24894633996072</v>
+        <v>48.8874698617153</v>
       </c>
       <c r="C4" t="n">
-        <v>6.623489792651158</v>
+        <v>7.271878745159778</v>
       </c>
       <c r="D4" t="n">
-        <v>3.578094833315523</v>
+        <v>4.543025665767</v>
       </c>
       <c r="E4" t="n">
-        <v>4.641118873659746</v>
+        <v>3.512965866682032</v>
       </c>
       <c r="F4" t="n">
-        <v>5.012686316134736</v>
+        <v>2.92421216130287e+17</v>
       </c>
       <c r="G4" t="n">
-        <v>40.1411881327581</v>
+        <v>4.34661096472953</v>
       </c>
       <c r="H4" t="n">
-        <v>22.74131243752178</v>
+        <v>40.98319054374419</v>
       </c>
       <c r="I4" t="n">
-        <v>18.69330619702975</v>
+        <v>21.43569010288186</v>
       </c>
       <c r="J4" t="n">
-        <v>10.8666680524384</v>
+        <v>42.77300667365063</v>
       </c>
       <c r="K4" t="n">
-        <v>8.128659032914227</v>
+        <v>9.919048219479846</v>
       </c>
       <c r="L4" t="n">
-        <v>8.263282161604479</v>
+        <v>11.47763952068743</v>
       </c>
       <c r="M4" t="n">
-        <v>54.11512840146593</v>
+        <v>8.654891382502997</v>
       </c>
       <c r="N4" t="n">
-        <v>34.78819807735387</v>
+        <v>54.51399291254852</v>
       </c>
       <c r="O4" t="n">
-        <v>8.100329829190514</v>
+        <v>35.34234229180773</v>
       </c>
       <c r="P4" t="n">
-        <v>46.50513957265613</v>
+        <v>7.960061378382896</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.863462881331645</v>
+        <v>46.97342717662045</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.463395584683599</v>
       </c>
     </row>
     <row r="5">
@@ -699,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -717,21 +731,24 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -745,49 +762,52 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09896074490208306</v>
+        <v>0.09344266453942492</v>
       </c>
       <c r="D6" t="n">
-        <v>3.030723642573262e-05</v>
+        <v>7.955839593494206e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003213794462846393</v>
+        <v>0.001968549369181749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1058540656545585</v>
+        <v>94439953.25</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0491718706595813</v>
       </c>
       <c r="H6" t="n">
-        <v>40.79416351080419</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5115878262688949</v>
+        <v>40.5085653104925</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1413919802790587</v>
+        <v>0.5013136288998358</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0008106616185106069</v>
+        <v>0.1124325701065373</v>
       </c>
       <c r="L6" t="n">
+        <v>0.0007312739345898219</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>31.37138574907888</v>
+      </c>
+      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="M6" t="n">
-        <v>15</v>
-      </c>
-      <c r="N6" t="n">
-        <v>32.103019585071</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>13</v>
-      </c>
       <c r="Q6" t="n">
-        <v>4.597463468431211</v>
+        <v>10.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.438435538387252</v>
       </c>
     </row>
     <row r="7">
@@ -800,49 +820,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5506740571630451</v>
+        <v>0.5757364775920826</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003056191908477239</v>
+        <v>0.0008438011690069612</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02817426479095338</v>
+        <v>0.01842969495630499</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3135680788490581</v>
+        <v>377230939</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.1600520940434574</v>
       </c>
       <c r="H7" t="n">
-        <v>60.31410113611049</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.418647408102463</v>
+        <v>59.23982869379014</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6492877101774561</v>
+        <v>1.443625841750842</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6416122010706158</v>
+        <v>0.6632034452872573</v>
       </c>
       <c r="L7" t="n">
+        <v>0.4653561037105763</v>
+      </c>
+      <c r="M7" t="n">
         <v>8</v>
       </c>
-      <c r="M7" t="n">
-        <v>57</v>
-      </c>
       <c r="N7" t="n">
-        <v>60.91574834735303</v>
+        <v>54</v>
       </c>
       <c r="O7" t="n">
+        <v>68.24302202821855</v>
+      </c>
+      <c r="P7" t="n">
         <v>8</v>
       </c>
-      <c r="P7" t="n">
-        <v>49</v>
-      </c>
       <c r="Q7" t="n">
-        <v>6.854838709677418</v>
+        <v>47</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.846153846153847</v>
       </c>
     </row>
     <row r="8">
@@ -855,49 +878,52 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>2.01133197549467</v>
+        <v>2.347553155205024</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008360467648298528</v>
+        <v>0.03202165164869346</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09188774001688313</v>
+        <v>0.05518726334981938</v>
       </c>
       <c r="F8" t="n">
-        <v>1.200143072887688</v>
+        <v>2338591177.25</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.5945900119412246</v>
       </c>
       <c r="H8" t="n">
-        <v>75.63488527511696</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.277241459133752</v>
+        <v>73.29764453961455</v>
       </c>
       <c r="J8" t="n">
-        <v>2.584223911879516</v>
+        <v>5.358665313230251</v>
       </c>
       <c r="K8" t="n">
-        <v>2.114971823770492</v>
+        <v>2.585386326599655</v>
       </c>
       <c r="L8" t="n">
+        <v>2.187619047619048</v>
+      </c>
+      <c r="M8" t="n">
         <v>16</v>
       </c>
-      <c r="M8" t="n">
-        <v>115</v>
-      </c>
       <c r="N8" t="n">
-        <v>99.91899950255549</v>
+        <v>113</v>
       </c>
       <c r="O8" t="n">
+        <v>99.92692604804158</v>
+      </c>
+      <c r="P8" t="n">
         <v>16</v>
       </c>
-      <c r="P8" t="n">
-        <v>99</v>
-      </c>
       <c r="Q8" t="n">
-        <v>9.039938556067588</v>
+        <v>98</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.166586190246258</v>
       </c>
     </row>
     <row r="9">
@@ -913,13 +939,13 @@
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>99.99999999999999</v>
+        <v>1.118951206448181e+18</v>
       </c>
       <c r="G9" t="n">
         <v>100</v>
@@ -928,30 +954,33 @@
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>337.2018225676762</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>185.8958525345622</v>
+        <v>1062.034482758621</v>
       </c>
       <c r="K9" t="n">
-        <v>151.7142857142857</v>
+        <v>191.3500539374326</v>
       </c>
       <c r="L9" t="n">
-        <v>68</v>
+        <v>242.3333333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
+        <v>165</v>
+      </c>
+      <c r="O9" t="n">
         <v>100</v>
       </c>
-      <c r="O9" t="n">
-        <v>34</v>
-      </c>
       <c r="P9" t="n">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="n">
+        <v>156</v>
+      </c>
+      <c r="R9" t="n">
         <v>100</v>
       </c>
     </row>
